--- a/Ops Assist/Terminal_web_Extraction/Terminals_Data.xlsx
+++ b/Ops Assist/Terminal_web_Extraction/Terminals_Data.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cosco" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Antwerp_869" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Antwerp_913" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -603,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,22 +679,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CSART</t>
+          <t>DIMTR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CAP SAN ARTEMISSIO</t>
+          <t>DIMITRA C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>232S</t>
+          <t>017W</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18/08/2022 14:00</t>
+          <t>12/10/2022 18:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -710,22 +711,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HUDSO</t>
+          <t>CSART</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HUDSON EXPRESS</t>
+          <t>CAP SAN ARTEMISSIO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>015W</t>
+          <t>240S</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19/08/2022 6:00</t>
+          <t>13/10/2022 22:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -742,22 +743,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIMTR</t>
+          <t>DELAW</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DIMITRA C</t>
+          <t>DELAWARE EXPRESS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>016W</t>
+          <t>030W</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20/08/2022 2:00</t>
+          <t>15/10/2022 6:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -774,22 +775,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NRIGE</t>
+          <t>NLBRE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NYK RIGEL</t>
+          <t>NILE DUTCH BREDA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>066W</t>
+          <t>2241S</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21/08/2022 2:00</t>
+          <t>16/10/2022 11:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -806,22 +807,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MARTH</t>
+          <t>NMETE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MARTHA A</t>
+          <t>NYK METEOR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EAS32S22</t>
+          <t>074W</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22/08/2022 18:00</t>
+          <t>17/10/2022 14:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -838,27 +839,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>COLOX</t>
+          <t>BRBRD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COLORADO EXPRESS</t>
+          <t>BROOKLYN BRIDGE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>028W</t>
+          <t>140W</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26/08/2022 6:00</t>
+          <t>18/10/2022 6:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>19/08/2022</t>
+          <t>OPEN</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -880,17 +881,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>233S</t>
+          <t>241S</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29/08/2022 6:00</t>
+          <t>20/10/2022 18:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>13/10/2022</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -930,22 +931,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRBRD</t>
+          <t>NDELP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BROOKLYN BRIDGE</t>
+          <t>NYK DELPHINUS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>139W</t>
+          <t>091W</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31/08/2022 6:00</t>
+          <t>22/10/2022 14:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -958,22 +959,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SANTW</t>
+          <t>NRUMI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SYNERGY ANTWERP</t>
+          <t>NYK RUMINA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2235S</t>
+          <t>060W</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31/08/2022 22:00</t>
+          <t>23/10/2022 6:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -986,22 +987,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NDENE</t>
+          <t>MISSO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NYK DENEB</t>
+          <t>MISSOURI EXPRESS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>078W</t>
+          <t>064W</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3/09/2022 6:00</t>
+          <t>23/10/2022 6:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1014,22 +1015,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DELAW</t>
+          <t>LHVRX</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DELAWARE EXPRESS</t>
+          <t>Le Havre Express</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>029W</t>
+          <t>022W</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4/09/2022 6:00</t>
+          <t>24/10/2022 6:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1042,22 +1043,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MOEXP</t>
+          <t>SEASA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MOL EXPERIENCE</t>
+          <t>SEASPAN SAIGON</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>083W</t>
+          <t>2243S</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6/09/2022 6:00</t>
+          <t>26/10/2022 6:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1070,22 +1071,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NYNEB</t>
+          <t>MOEXP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NYK NEBULA</t>
+          <t>MOL EXPERIENCE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>077W</t>
+          <t>084W</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6/09/2022 6:00</t>
+          <t>26/10/2022 13:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1098,22 +1099,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CSNIC</t>
+          <t>REN19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CAP SAN NICOLAS</t>
+          <t>REN JIAN 19</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>234S</t>
+          <t>2237E</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7/09/2022 6:00</t>
+          <t>30/10/2022 6:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1126,22 +1127,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NLBRE</t>
+          <t>POTOM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NILE DUTCH BREDA</t>
+          <t>POTOMAC EXPRESS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2236S</t>
+          <t>013W</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7/09/2022 22:00</t>
+          <t>30/10/2022 11:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1154,22 +1155,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LHVRX</t>
+          <t>CSNIC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Le Havre Express</t>
+          <t>CAP SAN NICOLAS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>021W</t>
+          <t>242S</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9/09/2022 6:00</t>
+          <t>31/10/2022 6:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1182,22 +1183,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RJI23</t>
+          <t>CHACA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>REN JIAN 23</t>
+          <t>CHACABUCO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2226</t>
+          <t>026W</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10/09/2022 1:00</t>
+          <t>1/11/2022 6:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1210,22 +1211,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MISSO</t>
+          <t>MARTH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MISSOURI EXPRESS</t>
+          <t>MARTHA A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>063W</t>
+          <t>EAS44S22</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12/09/2022 6:00</t>
+          <t>2/11/2022 6:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1238,22 +1239,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHACA</t>
+          <t>CSANM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHACABUCO</t>
+          <t>CAP SAN MARCO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>025W</t>
+          <t>243S</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13/09/2022 6:00</t>
+          <t>3/11/2022 6:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1266,22 +1267,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NDEME</t>
+          <t>NYREM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NYK DEMETER</t>
+          <t>NYK REMUS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>107W</t>
+          <t>068W</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13/09/2022 6:00</t>
+          <t>4/11/2022 6:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1294,22 +1295,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSANM</t>
+          <t>HUDSO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CAP SAN MARCO</t>
+          <t>HUDSON EXPRESS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>235S</t>
+          <t>017W</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13/09/2022 6:00</t>
+          <t>5/11/2022 6:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1322,22 +1323,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SEASA</t>
+          <t>REN16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SEASPAN SAIGON</t>
+          <t>REN JIAN 16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2237S</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14/09/2022 6:00</t>
+          <t>6/11/2022 6:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1350,22 +1351,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RJI17</t>
+          <t>SVIOL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>REN JIAN 17</t>
+          <t>SANTA VIOLA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2229E</t>
+          <t>028W</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15/09/2022 6:00</t>
+          <t>7/11/2022 6:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1378,22 +1379,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>POTOM</t>
+          <t>NRIGE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>POTOMAC EXPRESS</t>
+          <t>NYK RIGEL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>012W</t>
+          <t>067W</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18/09/2022 6:00</t>
+          <t>8/11/2022 6:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1416,12 +1417,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>236S</t>
+          <t>244S</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20/09/2022 6:00</t>
+          <t>11/11/2022 6:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1434,22 +1435,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SVIOL</t>
+          <t>COLOX</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SANTA VIOLA</t>
+          <t>COLORADO EXPRESS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>027W</t>
+          <t>030W</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20/09/2022 6:00</t>
+          <t>13/11/2022 6:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1462,22 +1463,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NROMU</t>
+          <t>NDENE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NYK ROMULUS</t>
+          <t>NYK DENEB</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>063W</t>
+          <t>079W</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23/09/2022 6:00</t>
+          <t>15/11/2022 6:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1490,22 +1491,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HUDSO</t>
+          <t>NDAED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HUDSON EXPRESS</t>
+          <t>NYK DAEDALUS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>016W</t>
+          <t>079W</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23/09/2022 6:00</t>
+          <t>15/11/2022 6:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1518,22 +1519,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CSAUG</t>
+          <t>NLBRE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CAP SAN AUGUSTIN</t>
+          <t>NILE DUTCH BREDA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>237S</t>
+          <t>2246S</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>27/09/2022 6:00</t>
+          <t>16/11/2022 6:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1546,22 +1547,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MARTH</t>
+          <t>RJI25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MARTHA A</t>
+          <t>REN JIAN 25</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EAS39S22</t>
+          <t>2237</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>27/09/2022 6:00</t>
+          <t>16/11/2022 6:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1574,22 +1575,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NDAED</t>
+          <t>CSAUG</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NYK DAEDALUS</t>
+          <t>CAP SAN AUGUSTIN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>078W</t>
+          <t>245S</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>29/09/2022 6:00</t>
+          <t>17/11/2022 6:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1602,22 +1603,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AMOLI</t>
+          <t>DELAW</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AMOLIANI</t>
+          <t>DELAWARE EXPRESS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>????</t>
+          <t>031W</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>30/09/2022 6:00</t>
+          <t>19/11/2022 6:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1630,22 +1631,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>COLOX</t>
+          <t>NYNEB</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COLORADO EXPRESS</t>
+          <t>NYK NEBULA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>029W</t>
+          <t>078W</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>30/09/2022 6:00</t>
+          <t>22/11/2022 6:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1658,22 +1659,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SKOBE</t>
+          <t>SANTW</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SEASPAN KOBE</t>
+          <t>SYNERGY ANTWERP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2237E</t>
+          <t>2247S</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>30/09/2022 6:00</t>
+          <t>23/11/2022 6:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1686,22 +1687,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BRBRD</t>
+          <t>DIMTR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BROOKLYN BRIDGE</t>
+          <t>DIMITRA C</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>140W</t>
+          <t>018W</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3/10/2022 6:00</t>
+          <t>25/11/2022 6:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1714,22 +1715,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NMETE</t>
+          <t>CSMAL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NYK METEOR</t>
+          <t>CAP SAN MALEAS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>074W</t>
+          <t>246S</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3/10/2022 6:00</t>
+          <t>25/11/2022 6:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1742,22 +1743,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NDELP</t>
+          <t>MISSO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NYK DELPHINUS</t>
+          <t>MISSOURI EXPRESS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>091W</t>
+          <t>065W</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4/10/2022 6:00</t>
+          <t>28/11/2022 6:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1770,22 +1771,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CSMAL</t>
+          <t>BRBRD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CAP SAN MALEAS</t>
+          <t>BROOKLYN BRIDGE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>238S</t>
+          <t>141W</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4/10/2022 6:00</t>
+          <t>29/11/2022 6:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1798,22 +1799,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DIMTR</t>
+          <t>NDEME</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DIMITRA C</t>
+          <t>NYK DEMETER</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>017W</t>
+          <t>108W</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5/10/2022 6:00</t>
+          <t>29/11/2022 6:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1826,22 +1827,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SANTW</t>
+          <t>SEASA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SYNERGY ANTWERP</t>
+          <t>SEASPAN SAIGON</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2240S</t>
+          <t>2248S</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5/10/2022 6:00</t>
+          <t>30/11/2022 6:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1854,22 +1855,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>YMFOU</t>
+          <t>CSRAP</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>YM FOUNTAIN</t>
+          <t>CAP SAN RAPHAEL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>164E</t>
+          <t>247S</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7/10/2022 6:00</t>
+          <t>2/12/2022 6:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1882,22 +1883,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DELAW</t>
+          <t>SKOBE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DELAWARE EXPRESS</t>
+          <t>SEASPAN KOBE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>030W</t>
+          <t>2246E</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7/10/2022 6:00</t>
+          <t>2/12/2022 6:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1910,22 +1911,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CSRAP</t>
+          <t>SEAHA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CAP SAN RAPHAEL</t>
+          <t>SEASPAN HAMBURG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>239S</t>
+          <t>004E</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11/10/2022 6:00</t>
+          <t>5/12/2022 6:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1938,22 +1939,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NLBRE</t>
+          <t>POTOM</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NILE DUTCH BREDA</t>
+          <t>POTOMAC EXPRESS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2241S</t>
+          <t>014W</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12/10/2022 6:00</t>
+          <t>5/12/2022 6:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1966,22 +1967,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MISSO</t>
+          <t>LHVRX</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MISSOURI EXPRESS</t>
+          <t>Le Havre Express</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>064W</t>
+          <t>023W</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14/10/2022 6:00</t>
+          <t>6/12/2022 6:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1994,22 +1995,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CSART</t>
+          <t>NROMU</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CAP SAN ARTEMISSIO</t>
+          <t>NYK ROMULUS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>240S</t>
+          <t>064W</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>18/10/2022 6:00</t>
+          <t>6/12/2022 6:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2022,22 +2023,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SEASA</t>
+          <t>MARTH</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SEASPAN SAIGON</t>
+          <t>MARTHA A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2242S</t>
+          <t>EAS49S22</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>19/10/2022 6:00</t>
+          <t>7/12/2022 6:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2050,22 +2051,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>POTOM</t>
+          <t>CSART</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>POTOMAC EXPRESS</t>
+          <t>CAP SAN ARTEMISSIO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>013W</t>
+          <t>248S</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>21/10/2022 6:00</t>
+          <t>9/12/2022 6:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2078,22 +2079,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LHVRX</t>
+          <t>YMFOU</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Le Havre Express</t>
+          <t>YM FOUNTAIN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>022W</t>
+          <t>165E</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>22/10/2022 6:00</t>
+          <t>9/12/2022 6:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2106,22 +2107,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CHACA</t>
+          <t>HUDSO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CHACABUCO</t>
+          <t>HUDSON EXPRESS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>026W</t>
+          <t>018W</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>24/10/2022 6:00</t>
+          <t>10/12/2022 6:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2134,22 +2135,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CSLOR</t>
+          <t>ALIAGA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CAP SAN LORENZO</t>
+          <t>ALIAGA EXPRESS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>241S</t>
+          <t>004E</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>25/10/2022 6:00</t>
+          <t>13/12/2022 6:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2162,22 +2163,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NRUMI</t>
+          <t>CHACA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NYK RUMINA</t>
+          <t>CHACABUCO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>060W</t>
+          <t>027W</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>28/10/2022 6:00</t>
+          <t>13/12/2022 6:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2190,22 +2191,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HUDSO</t>
+          <t>CSLOR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HUDSON EXPRESS</t>
+          <t>CAP SAN LORENZO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>017W</t>
+          <t>249S</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>28/10/2022 6:00</t>
+          <t>16/12/2022 6:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2218,22 +2219,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CSNIC</t>
+          <t>COLOX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CAP SAN NICOLAS</t>
+          <t>COLORADO EXPRESS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>242S</t>
+          <t>031W</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>31/10/2022 6:00</t>
+          <t>18/12/2022 6:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2246,22 +2247,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CSANM</t>
+          <t>SVIOL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CAP SAN MARCO</t>
+          <t>SANTA VIOLA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>243S</t>
+          <t>029W</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2/11/2022 6:00</t>
+          <t>19/12/2022 6:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2274,22 +2275,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MARTH</t>
+          <t>LIMARI</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MARTHA A</t>
+          <t>LIMARI</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EAS44S22</t>
+          <t>004E</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2/11/2022 6:00</t>
+          <t>19/12/2022 6:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2302,22 +2303,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SVIOL</t>
+          <t>NMETE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SANTA VIOLA</t>
+          <t>NYK METEOR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>028W</t>
+          <t>075W</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3/11/2022 6:00</t>
+          <t>20/12/2022 6:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2330,22 +2331,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>COLOX</t>
+          <t>NLBRE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COLORADO EXPRESS</t>
+          <t>NILE DUTCH BREDA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>030W</t>
+          <t>2251S</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4/11/2022 6:00</t>
+          <t>21/12/2022 6:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2358,22 +2359,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NYREM</t>
+          <t>DELAW</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NYK REMUS</t>
+          <t>DELAWARE EXPRESS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>068W</t>
+          <t>032W</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4/11/2022 6:00</t>
+          <t>22/12/2022 6:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2386,22 +2387,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NDAED</t>
+          <t>CSNIC</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NYK DAEDALUS</t>
+          <t>CAP SAN NICOLAS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>079W</t>
+          <t>250S</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7/11/2022 6:00</t>
+          <t>22/12/2022 6:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2414,22 +2415,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SANTW</t>
+          <t>RGRAX</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SYNERGY ANTWERP</t>
+          <t>RIO GRANDE EXPRESS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2245S</t>
+          <t>005E</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>9/11/2022 6:00</t>
+          <t>27/12/2022 6:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2442,22 +2443,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NRIGE</t>
+          <t>NDELP</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NYK RIGEL</t>
+          <t>NYK DELPHINUS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>067W</t>
+          <t>092W</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>11/11/2022 6:00</t>
+          <t>27/12/2022 6:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2470,22 +2471,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DELAW</t>
+          <t>SANTW</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DELAWARE EXPRESS</t>
+          <t>SYNERGY ANTWERP</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>031W</t>
+          <t>2252S</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>11/11/2022 6:00</t>
+          <t>28/12/2022 6:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2498,22 +2499,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CSANT</t>
+          <t>CSANM</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CAP SAN ANTONIO</t>
+          <t>CAP SAN MARCO</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>244S</t>
+          <t>251S</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14/11/2022 6:00</t>
+          <t>29/12/2022 6:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2526,22 +2527,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DIMTR</t>
+          <t>NDAED</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DIMITRA C</t>
+          <t>NYK DAEDALUS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>018W</t>
+          <t>080W</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>14/11/2022 6:00</t>
+          <t>30/12/2022 6:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2554,22 +2555,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NDENE</t>
+          <t>MISSO</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NYK DENEB</t>
+          <t>MISSOURI EXPRESS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>079W</t>
+          <t>066W</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>15/11/2022 6:00</t>
+          <t>1/01/2023 6:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2582,22 +2583,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NLBRE</t>
+          <t>DIMTR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NILE DUTCH BREDA</t>
+          <t>DIMITRA C</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2246S</t>
+          <t>019W</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>16/11/2022 6:00</t>
+          <t>2/01/2023 6:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2610,22 +2611,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MISSO</t>
+          <t>MOEXP</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MISSOURI EXPRESS</t>
+          <t>MOL EXPERIENCE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>065W</t>
+          <t>085W</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>18/11/2022 6:00</t>
+          <t>3/01/2023 6:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2638,22 +2639,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BRBRD</t>
+          <t>SEASA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BROOKLYN BRIDGE</t>
+          <t>SEASPAN SAIGON</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>141W</t>
+          <t>2253S</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>21/11/2022 6:00</t>
+          <t>4/01/2023 6:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2666,22 +2667,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MOEXP</t>
+          <t>BRBRD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MOL EXPERIENCE</t>
+          <t>BROOKLYN BRIDGE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>084W</t>
+          <t>142W</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>22/11/2022 6:00</t>
+          <t>9/01/2023 6:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2704,20 +2705,4517 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>014W</t>
+          <t>015W</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>9/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NRUMI</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>NYK RUMINA</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>070W</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MARTH</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MARTHA A</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>EAS54S23</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CSTAI</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CAP SAN TAINARO</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>------</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>12/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>LHVRX</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Le Havre Express</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>024W</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>16/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SEAEM</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SEASPAN EMPIRE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>005E</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>16/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NYREM</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NYK REMUS</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>069W</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>17/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>HUDSO</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>HUDSON EXPRESS</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>019W</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>17/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>DABAE</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DACHAN BAY EXPRESS</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>005W</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>23/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>COLOX</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>COLORADO EXPRESS</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>032W</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>24/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NLBRE</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>NILE DUTCH BREDA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2256S</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>25/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SPILK</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SPIL KARTIKA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>005E</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>31/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>VESSEL CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>VESSEL NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VOYAGE OUT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ETA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>YARD OPENING TIME</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CHANGED</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vessel Code</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Vessel Name</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Voyage Out</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ETA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Yard Opening Time</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HMMSP</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HMM ST PETERSBURG</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HOSP0007E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12/10/2022 12:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>QUEXP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>QUEBEC EXPRESS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>82W41</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12/10/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JAZAN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JAZAN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240S</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13/10/2022 18:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ZATLA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ZIM ATLANTIC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14/10/2022 5:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VILMA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>VILNIA MAERSK</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244N</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14/10/2022 18:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CMONT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CMA CGM MONTREAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0EDCFW1MA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14/10/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LISEX</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LISBON EXPRESS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>04W41</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14/10/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MABAL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MAERSK BALI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>241S</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15/10/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HMMDA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HMM DAON</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>HODA0005E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15/10/2022 19:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>VUOKS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>VUOKSI MAERSK</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>242N</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16/10/2022 0:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>YWREA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YM WREATH</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>022E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16/10/2022 14:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>VAYMA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>VAYENGA MAERSK</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>241W</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17/10/2022 11:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>OMONT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OOCL MONTREAL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>356W</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19/10/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EMKEA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EM KEA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0EDCJW1MA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19/10/2022 18:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WKLAI</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>W KLAIPEDA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>241S</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19/10/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ZTARA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ZIM TARRAGONA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>85E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20/10/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13/10/2022</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MILAN</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MILAN EXPRESS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>05W42</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21/10/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>XINYT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>XIN YAN TAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>223E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21/10/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LINAH</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LINAH</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>023E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21/10/2022 12:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>YMWIN</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>YM WINNER</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>037E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22/10/2022 0:30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>15/10/2022</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MBATU</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MAERSK BATUR</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>242S</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22/10/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>15/10/2022</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VENTA MAERSK</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>243N</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22/10/2022 15:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15/10/2022</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Vessel Code</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Vessel Name</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Voyage Out</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ETA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Yard Opening Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LOTUS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LOTUS A</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0PE4UE1MA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25/10/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CINDO</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cosco Indonesia</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>242S</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26/10/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MONTX</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MONTREAL EXPRESS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>45W43</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26/10/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HMMCO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HMM COPENHAGEN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>HOCO0008E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>26/10/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>VISTU</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VISTULA MAERSK</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>243W</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>27/10/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MAIDA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MAERSK IDAHO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>243W</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>27/10/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BUDEX</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BUDAPEST EXPRESS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2236E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>27/10/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ALJME</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AL JMELIYAH</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>022E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>27/10/2022 19:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MINST</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MINSTREL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>04W43</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>28/10/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MABUL</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MAERSK BULAN</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>243S</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>29/10/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>OSAKX</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>OSAKA EXPRESS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2237E</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>30/10/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>YWELL</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>YM WELLNESS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>032E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>30/10/2022 8:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CCFID</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CMA CGM FIDELIO</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0PE4WE1MA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GKALL</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GSL KALLIOPI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>243S</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RENAP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RENA P</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>41E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PARTI</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PARTICI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>12E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>OCYGN</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ONE CYGNUS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>012E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PRAGX</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PRAGUE EXPRESS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2238E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3/11/2022 14:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TOROX</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TORONTO EXPRESS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>50W44</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3/11/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>VALEX</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VALENCIA EXPRESS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>06W44</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BRUEX</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BRUSSELS EXPRESS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>022E</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4/11/2022 13:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BRANI</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MAERSK BRANI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>244S</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>OASIA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>OOCL ASIA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>174E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UMMQA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>UMM QARN</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>022E</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CVIET</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>COSCO VIETNAM</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>244S</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>QUEXP</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>QUEBEC EXPRESS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>83W45</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10/11/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>KOLAG</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>KOTA LAGU</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>7E</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10/11/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CMONT</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CMA CGM MONTREAL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0EDCNW1MA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LISEX</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>LISBON EXPRESS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>05W45</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ALMAS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>AL MASHRAB</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>023E</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MBATA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MAERSK BATAM</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>245S</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HMMGD</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>HMM GDANSK</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>HOGD0008E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13/11/2022 14:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>VAYMA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>VAYENGA MAERSK</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>245W</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>15/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ANEWY</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>APL NEW YORK</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0PE50E1PL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>16/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>OMONT</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>OOCL MONTREAL</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>357W</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>16/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>JAZAN</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>JAZAN</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>245S</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>16/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BACH</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BACH</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>47E</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>17/11/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MILAN</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MILAN EXPRESS</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>06W46</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>18/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NAGEX</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>NAGOYA EXPRESS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2239E</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>19/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SBENG</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SAFMARINE BENGUELA</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>246S</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>19/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>HMMGA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>HMM GAON</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>HOGO0006E</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>21/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>EMKEA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>EM KEA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0EDCRW1MA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>21/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CJAPA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>COSCO JAPAN</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>099E</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>21/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>HHBRI</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ONE HENRY HUDSON</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>085E</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>23/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>WKLAI</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>W KLAIPEDA</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>246S</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>23/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MONTX</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MONTREAL EXPRESS</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>46W47</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>23/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TONGL</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TONGALA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>133E</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>24/11/2022 22:00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>YMWHO</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>YM WHOLESOME</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>033E</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>25/11/2022 6:00</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MINST</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MINSTREL</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>05W47</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>25/11/2022 6:00</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>NOT YET DETERMINED</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MAIDA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MAERSK IDAHO</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>247W</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>25/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MABUT</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MAERSK BUTON</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>247S</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>27/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>YWISH</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>YM WISH</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>036E</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>28/11/2022 21:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HMMAL</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>HMM ALGECIRAS</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>HOAC0009E</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>30/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CINDO</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Cosco Indonesia</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>247S</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>30/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TOROX</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TORONTO EXPRESS</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>51W48</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>30/11/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>TSINX</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TSINGTAO EXPRESS</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2243E</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SEAFE</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SEASPAN FELIXSTOWE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>7E</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>HMMGR</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>HMM GARAM</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>HOGR0006E</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>VALEX</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>VALENCIA EXPRESS</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>07W48</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>HMMRO</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>HMM ROTTERDAM</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>HORO0008E</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2/12/2022 14:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>OMANH</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ONE MANHATTAN</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>031E</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>VISTU</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>VISTULA MAERSK</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>247W</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MBRAT</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>248S</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CCCEN</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CMA CGM CENDRILLON</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0PE54E1MA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>HMMHE</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>HMM HELSINKI</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>HOHE0008E</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>GKALL</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>GSL KALLIOPI</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>248S</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>QUEXP</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>QUEBEC EXPRESS</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>84W49</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NAVIN</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>NAVIOS INDIGO</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4E</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>8/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SOFEX</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SOFIA EXPRESS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2244E</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>LISEX</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>LISBON EXPRESS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>06W49</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>9/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ONECR</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ONE CRANE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>023E</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>10/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MABAL</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>MAERSK BALI</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>249S</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>11/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>KOI</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>KOI</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0PE56E1MA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>12/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CVIET</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>COSCO VIETNAM</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>249S</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>14/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>HDUBL</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>HMM DUBLIN</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>HODU0008E</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>14/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>HMHAN</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>HMM HANBADA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>HOBD0006E</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>14/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>OMONT</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>OOCL MONTREAL</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>358W</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>14/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>HMMNU</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>HMM NURI</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>HONR0007E</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>15/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ZATLA</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ZIM ATLANTIC</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>7E</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>15/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MILAN</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MILAN EXPRESS</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>06W50</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>16/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>KYOTX</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>KYOTO EXPRESS</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2245E</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>17/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>YMWIS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>YM WISDOM</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>013E</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>17/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MBATU</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>MAERSK BATUR</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>250S</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>18/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>HMMSH</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>HMM SOUTHAMPTON</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>HOSO0008E</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>18/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>XINYT</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>XIN YAN TAI</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>224E</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>19/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CMONT</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>CMA CGM MONTREAL</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0EDCTW1MA</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>20/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>HMMST</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>HMM STOCKHOLM</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>HOSK0008E</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>20/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MEISH</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MEISHAN BRIDGE</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>019E</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>21/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MONTX</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MONTREAL EXPRESS</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>47W51</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>21/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>JAZAN</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>JAZAN</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>250S</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>21/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>HMMHA</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>HMM HAMBURG</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>HOHA0008E</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>21/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>HMMMI</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>HMM MIR</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>HOMI0006E</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>22/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MINST</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MINSTREL</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>06W51</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>23/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>MABUL</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MAERSK BULAN</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>251S</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>24/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>LOTUS</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>LOTUS A</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0PE5AE1MA</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>26/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>VAYMA</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>VAYENGA MAERSK</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>249W</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>27/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>WKLAI</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>W KLAIPEDA</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>251S</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>28/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>TOROX</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>TORONTO EXPRESS</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>52W52</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>28/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>BUDEX</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>BUDAPEST EXPRESS</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2246E</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>28/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>PARTI</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>PARTICI</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>13E</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>29/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>HMMDA</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>HMM DAON</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>HODA0006E</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>29/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>HMMOS</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>HMM OSLO</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>HOOS0009E</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>29/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>VALEX</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>VALENCIA EXPRESS</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>06W52</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>30/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>BRANI</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>MAERSK BRANI</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>252S</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>31/12/2022 6:00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ONEIB</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ONE IBIS</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>027E</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CCFID</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CMA CGM FIDELIO</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0PE5CE1MA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>EMKEA</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>EM KEA</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0EDCXW1MA</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>OSAKX</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>OSAKA EXPRESS</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2247E</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>4/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>CINDO</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Cosco Indonesia</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>252S</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>4/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>QUEXP</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>QUEBEC EXPRESS</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>85W01</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>RENAP</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>RENA P</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>42E</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>5/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>HMMLH</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>HMM LE HAVRE</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>HOLE0008E</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>5/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>MBATA</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>MAERSK BATAM</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>301S</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>7/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>OASIA</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>OOCL ASIA</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>175E</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>9/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>VISTU</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>VISTULA MAERSK</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>251W</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>10/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>PRAGX</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>PRAGUE EXPRESS</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2248E</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>10/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>OMONT</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>OOCL MONTREAL</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>359W</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>11/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>KOLAG</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>KOTA LAGU</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>8E</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>12/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>LINAH</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>LINAH</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>024E</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>12/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ANEWY</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>APL NEW YORK</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0PE5GE1PL</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>16/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>YMWIN</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>YM WINNER</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>038E</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>18/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>MONTX</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>MONTREAL EXPRESS</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>48W03</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>18/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>CJAPA</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>COSCO JAPAN</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>100E</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>23/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>TOROX</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TORONTO EXPRESS</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>53W04</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>25/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>YWREA</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>YM WREATH</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>023E</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>28/01/2023 6:00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>NOT YET DETERMINED</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
